--- a/er_verb_0123_final.xlsx
+++ b/er_verb_0123_final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkjyoke\docker_safe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\docker_safe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E84924-8919-4FF8-B19A-2B31048DD490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,20 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -518,7 +505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -932,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>

--- a/er_verb_0123_final.xlsx
+++ b/er_verb_0123_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\docker_safe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E84924-8919-4FF8-B19A-2B31048DD490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E339C-C3E6-4C3F-82F3-11E7FE4F58E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,7 +923,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
